--- a/biology/Botanique/Forêt_domaniale_de_Saint-Jean/Forêt_domaniale_de_Saint-Jean.xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_Saint-Jean/Forêt_domaniale_de_Saint-Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Saint-Jean</t>
+          <t>Forêt_domaniale_de_Saint-Jean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Saint-Jean est une forêt publique domaniale présente sur le territoire de la commune de Bierry-les-Belles-Fontaines, dans le département de l'Yonne, en France.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Saint-Jean</t>
+          <t>Forêt_domaniale_de_Saint-Jean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Saint-Jean</t>
+          <t>Forêt_domaniale_de_Saint-Jean</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,13 +554,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt domaniale de Saint-Jean est située dans l'Yonne. Son extrémité Est s'arrête juste avant d'atteindre le département de la Côte-d'Or. Il arrive que cette forêt soit confondue avec la forêt domaniale de Châtel-Gérard, collée à celle de Saint-Jean et située à l'Ouest.
 Les communes proches sont Étivey (4.8 km), Aisy-sur-Armançon (4.9 km),	Châtel-Gérard (5.9 km), Fain-lès-Moutiers (6.9 km), Quincy-le-Vicomte (7.1 km).
-Le prieuré de Vausse
-Au sein de la forêt se trouve le prieuré de Vausse, fondé au XIIIe siècle par Anséric de Montréal, issu d'une puissante famille de l'aristocratie bourguignonne[1].
-Le dernier moine quitte le prieuré en 1763 et le bâtiment sera ensuite vendu comme Bien national à la Révolution à un faïencier d'Ancy-le-Franc.
 </t>
         </is>
       </c>
@@ -557,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Saint-Jean</t>
+          <t>Forêt_domaniale_de_Saint-Jean</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +585,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le prieuré de Vausse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de la forêt se trouve le prieuré de Vausse, fondé au XIIIe siècle par Anséric de Montréal, issu d'une puissante famille de l'aristocratie bourguignonne.
+Le dernier moine quitte le prieuré en 1763 et le bâtiment sera ensuite vendu comme Bien national à la Révolution à un faïencier d'Ancy-le-Franc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Saint-Jean</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Saint-Jean</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
